--- a/020_Data regression prediction based on BP neural network - predicting new data/待预测数据.xlsx
+++ b/020_Data regression prediction based on BP neural network - predicting new data/待预测数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w9629\Documents\MATLAB\Bilibili视频程序\021_基于BP神经网络的数据回归预测-预测新数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w9629\Documents\MATLAB\Matlab程序集合\基于BP神经网络的数据回归预测_预测新数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905FBB2A-3380-43A1-954F-969A9387B853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E01AFD-CA0C-479B-8CB9-DF6592DB5880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,226 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +263,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,9 +299,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -353,84 +590,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>273</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B2" s="1">
         <v>82</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C2" s="1">
         <v>105</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D2" s="1">
         <v>210</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E2" s="1">
         <v>9</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F2" s="1">
         <v>904</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G2" s="1">
         <v>680</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>163</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>149</v>
-      </c>
-      <c r="C2" s="1">
-        <v>191</v>
-      </c>
-      <c r="D2" s="1">
-        <v>180</v>
-      </c>
-      <c r="E2" s="1">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1">
-        <v>843</v>
-      </c>
-      <c r="G2" s="1">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>162</v>
-      </c>
-      <c r="B3" s="1">
-        <v>148</v>
       </c>
       <c r="C3" s="1">
         <v>191</v>
       </c>
       <c r="D3" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E3" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="G3" s="1">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>162</v>
       </c>
@@ -438,179 +678,202 @@
         <v>148</v>
       </c>
       <c r="C4" s="1">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D4" s="1">
         <v>179</v>
       </c>
       <c r="E4" s="1">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1">
+        <v>840</v>
+      </c>
+      <c r="G4" s="1">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>162</v>
+      </c>
+      <c r="B5" s="1">
+        <v>148</v>
+      </c>
+      <c r="C5" s="1">
+        <v>190</v>
+      </c>
+      <c r="D5" s="1">
+        <v>179</v>
+      </c>
+      <c r="E5" s="1">
         <v>19</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="1">
         <v>838</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G5" s="1">
         <v>741</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>154</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>112</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>144</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>220</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="1">
         <v>923</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="1">
         <v>658</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>147</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>89</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>115</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>202</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>9</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F7" s="1">
         <v>860</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G7" s="1">
         <v>829</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>152</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>139</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>178</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>168</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>18</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="1">
         <v>944</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="1">
         <v>695</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>145</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>227</v>
-      </c>
-      <c r="D8" s="1">
-        <v>240</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1">
-        <v>750</v>
-      </c>
-      <c r="G8" s="1">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>152</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D9" s="1">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
       </c>
       <c r="F9" s="1">
-        <v>785</v>
+        <v>750</v>
       </c>
       <c r="G9" s="1">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>304</v>
+        <v>152</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="D10" s="1">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E10" s="1">
         <v>6</v>
       </c>
       <c r="F10" s="1">
+        <v>785</v>
+      </c>
+      <c r="G10" s="1">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>304</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>140</v>
+      </c>
+      <c r="D11" s="1">
+        <v>214</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
         <v>895</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="1">
         <v>722</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>145</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>106</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>136</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>208</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F12" s="1">
         <v>751</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G12" s="1">
         <v>883</v>
       </c>
     </row>
